--- a/cancerDrugNT/config/DataBase/med.xlsx
+++ b/cancerDrugNT/config/DataBase/med.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
   <si>
     <t>NOS3</t>
   </si>
@@ -291,10 +291,6 @@
   </si>
   <si>
     <t>铂化物+紫杉类药物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺铂+异环磷酰胺+甲氨蝶呤+阿霉素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,9 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -669,10 +667,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -683,10 +681,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -697,10 +695,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -711,10 +709,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -725,10 +723,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -739,10 +737,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -753,10 +751,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -767,10 +765,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -781,10 +779,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -795,7 +793,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -809,10 +807,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -823,10 +821,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -837,10 +835,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -851,10 +849,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -865,10 +863,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -879,10 +877,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -893,10 +891,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -907,10 +905,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -921,10 +919,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -935,10 +933,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -949,10 +947,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -963,10 +961,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -977,10 +975,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -991,10 +989,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1005,10 +1003,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1019,10 +1017,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1033,10 +1031,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1047,10 +1045,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1061,10 +1059,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1075,10 +1073,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1089,10 +1087,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1103,10 +1101,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1117,10 +1115,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1131,10 +1129,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1145,10 +1143,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1159,10 +1157,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1173,10 +1171,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1187,10 +1185,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1201,10 +1199,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1215,10 +1213,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1229,10 +1227,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1243,10 +1241,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1257,10 +1255,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1271,10 +1269,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1285,10 +1283,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1299,10 +1297,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1313,10 +1311,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1327,10 +1325,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1341,29 +1339,15 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
         <v>1</v>
       </c>
     </row>
